--- a/graphs/graphs.xlsx
+++ b/graphs/graphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Informatica &amp; Economie\Bachelorproject\RecordLinkage\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE7829-4A3F-43A5-ABA0-AD41042026AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98943AD-BED2-4D9B-B53C-F46D48BF2E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7C359339-213C-41AD-9600-35C9EFBEAEAA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>dis</t>
   </si>
@@ -82,9 +82,6 @@
     <t>One birth</t>
   </si>
   <si>
-    <t>&gt;12</t>
-  </si>
-  <si>
     <t>&gt;20</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Kolom1</t>
   </si>
   <si>
-    <t>Kolom2</t>
-  </si>
-  <si>
     <t>uuids</t>
   </si>
   <si>
@@ -116,12 +110,6 @@
   </si>
   <si>
     <t>&gt;100</t>
-  </si>
-  <si>
-    <t>One death, no birth</t>
-  </si>
-  <si>
-    <t>One birth, no death</t>
   </si>
   <si>
     <t>Unique indivs</t>
@@ -135,6 +123,15 @@
   <si>
     <t>&gt;85</t>
   </si>
+  <si>
+    <t>BurgerLinker</t>
+  </si>
+  <si>
+    <t>RecordLinker</t>
+  </si>
+  <si>
+    <t>&gt;16</t>
+  </si>
 </sst>
 </file>
 
@@ -143,10 +140,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,7 +768,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Frequency of group length (RL)</a:t>
+              <a:t>Frequency of group size (RL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -822,7 +825,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EB19FB"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1341,7 +1344,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD4E-4293-90FC-B003C53C4DEF}"/>
+              <c16:uniqueId val="{00000000-0AEE-4969-BBBE-461585890170}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1386,7 +1389,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Group length</a:t>
+                  <a:t>Group size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1541,7 +1544,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1663,7 +1666,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Births per unique historical individual (BL)</a:t>
+              <a:t>Frequency of births per life course (BL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2095,7 +2098,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Unique historical individuals (Logarithmic)</a:t>
+                  <a:t>Frequency (Logarithmic)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2246,7 +2249,7 @@
               <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Deaths per unique historical individual (BL)</a:t>
+              <a:t>Frequency of deaths per life course (BL)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200">
               <a:effectLst/>
@@ -2364,9 +2367,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Res BL'!$B$29:$B$42</c:f>
+              <c:f>'Res BL'!$B$29:$B$46</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2407,58 +2410,82 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>&gt;12</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>&gt;16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Res BL'!$C$29:$C$42</c:f>
+              <c:f>'Res BL'!$C$29:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>128290</c:v>
+                  <c:v>97174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60136</c:v>
+                  <c:v>75188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10209</c:v>
+                  <c:v>19409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2293</c:v>
+                  <c:v>5931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>692</c:v>
+                  <c:v>2273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,7 +2680,7 @@
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Unique historical individuals (Logarithmic)</a:t>
+                  <a:t>Frequency (Logarithmic)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="800"/>
               </a:p>
@@ -2937,7 +2964,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Res BL'!$B$47:$B$50</c:f>
+              <c:f>'Res BL'!$B$51:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2957,21 +2984,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Res BL'!$C$47:$C$50</c:f>
+              <c:f>'Res BL'!$C$51:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47989</c:v>
+                  <c:v>62273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12147</c:v>
+                  <c:v>12915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34163</c:v>
+                  <c:v>19879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107695</c:v>
+                  <c:v>106927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,7 +3116,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Unique historical individuals</a:t>
+                  <a:t>Life courses</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3124,7 +3151,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3239,7 +3266,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Frequency of group length (BL)</a:t>
+              <a:t>Frequency of group </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t> (BL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3283,6 +3325,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Res BL'!$C$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BurgerLinker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3295,7 +3348,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Res BL'!$B$77:$B$175</c:f>
+              <c:f>'Res BL'!$B$81:$B$179</c:f>
               <c:strCache>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
@@ -3600,7 +3653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Res BL'!$C$77:$C$175</c:f>
+              <c:f>'Res BL'!$C$81:$C$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -3951,7 +4004,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Group length</a:t>
+                  <a:t>Group size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4106,7 +4159,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4149,6 +4202,1633 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Frequency of group size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Res BL'!$C$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BurgerLinker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Res BL'!$B$81:$B$179</c:f>
+              <c:strCache>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>&gt;100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Res BL'!$C$81:$C$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>81527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BC9-4B12-BC35-16DD0E959993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Res BL'!$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RecordLinker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Res BL'!$B$81:$B$179</c:f>
+              <c:strCache>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>&gt;100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Res BL'!$D$81:$D$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>150661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4689</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4211</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5BC9-4B12-BC35-16DD0E959993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="665332511"/>
+        <c:axId val="530149535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="665332511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Group size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530149535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530149535"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Frequency (Logarithmic)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665332511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90718603365424766"/>
+          <c:y val="0.37349986841004756"/>
+          <c:w val="8.2627246210974337E-2"/>
+          <c:h val="0.14251155060547319"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7306,7 +8986,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Births per unique historical individual (RL)</a:t>
+              <a:t>Frequency of births per life course (RL)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7352,7 +9032,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EB19FB"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7681,8 +9361,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frequency </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Unique historical individuals (Logarithmic)</a:t>
+                  <a:t>(Logarithmic)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7833,7 +9524,7 @@
               <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Deaths per unique historical individual (RL)</a:t>
+              <a:t>Frequency of deaths per life course (RL)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200">
               <a:effectLst/>
@@ -7882,7 +9573,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EB19FB"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8226,10 +9917,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frequency </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Unique historical individuals (Logarithmic)</a:t>
+                  <a:t>(Logarithmic)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="800"/>
               </a:p>
@@ -8444,7 +10146,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EB19FB"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8520,10 +10222,10 @@
                   <c:v>Complete</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>One death, no birth</c:v>
+                  <c:v>One death</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>One birth, no death</c:v>
+                  <c:v>One birth</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Other</c:v>
@@ -8665,7 +10367,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Unique historical individuals</a:t>
+                  <a:t>Life courses</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8700,7 +10402,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8981,6 +10683,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12371,6 +14113,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -16746,26 +18991,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266698</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>453785</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
+        <xdr:cNvPr id="6" name="Grafiek 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D13EB9-3A37-FB9E-FD2E-8065BF91153E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC23B340-C107-4035-8D1E-9A4E18B7A086}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -16832,7 +19079,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>128589</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16864,13 +19111,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16900,16 +19147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>278379</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>98485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314505</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16936,6 +19183,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>332476</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C34BE2-FBA6-436C-8E34-DC31EC9061FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16954,14 +19239,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E9DC776-2E1D-43EB-ADFE-002593DC550B}" name="Tabel3" displayName="Tabel3" ref="B76:C175" totalsRowShown="0">
-  <autoFilter ref="B76:C175" xr:uid="{0E9DC776-2E1D-43EB-ADFE-002593DC550B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B77:C200">
-    <sortCondition ref="B76:B200"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E9DC776-2E1D-43EB-ADFE-002593DC550B}" name="Tabel3" displayName="Tabel3" ref="B80:D179" totalsRowShown="0">
+  <autoFilter ref="B80:D179" xr:uid="{0E9DC776-2E1D-43EB-ADFE-002593DC550B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B81:C204">
+    <sortCondition ref="B80:B204"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C2A9A02C-3053-43CB-89CF-7F62400D391F}" name="Kolom1"/>
-    <tableColumn id="2" xr3:uid="{D826F964-7401-4535-9C42-E8999DDD5C46}" name="Kolom2"/>
+    <tableColumn id="2" xr3:uid="{D826F964-7401-4535-9C42-E8999DDD5C46}" name="BurgerLinker"/>
+    <tableColumn id="4" xr3:uid="{4411BDE4-5F2B-4986-846A-3C26E53EC4ED}" name="RecordLinker"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17266,7 +19552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE70FF36-BDBE-48BD-A9AA-4FFE25EF19B1}">
   <dimension ref="D6:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y81" sqref="Y81"/>
     </sheetView>
   </sheetViews>
@@ -18070,8 +20356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A382FF-C485-41D5-A0D7-E44E51E7C953}">
   <dimension ref="B8:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18279,7 +20565,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>352297</v>
@@ -18287,7 +20573,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>2119436</v>
@@ -18295,7 +20581,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <f>C53/C52</f>
@@ -18312,7 +20598,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>65564</v>
@@ -18320,7 +20606,7 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>49035</v>
@@ -18354,12 +20640,12 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>201995</v>
@@ -18367,7 +20653,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" s="1">
         <v>6.9050000000000002</v>
@@ -18375,12 +20661,12 @@
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77">
         <v>335754</v>
@@ -18388,7 +20674,7 @@
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
         <v>6.218</v>
@@ -18396,7 +20682,7 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>68664</v>
@@ -18404,10 +20690,10 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -19060,7 +21346,7 @@
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C167">
         <v>4</v>
@@ -19077,10 +21363,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705C932C-A893-4412-B6FE-9A53B82CB842}">
-  <dimension ref="B3:C175"/>
+  <dimension ref="B3:D179"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19259,7 +21545,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -19270,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>128290</v>
+        <v>97174</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -19278,7 +21564,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>60136</v>
+        <v>75188</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -19286,7 +21572,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>10209</v>
+        <v>19409</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -19294,7 +21580,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2293</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -19302,7 +21588,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>692</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -19310,7 +21596,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>223</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -19318,7 +21604,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>85</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -19326,7 +21612,7 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -19334,7 +21620,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -19342,7 +21628,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -19350,7 +21636,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -19358,7 +21644,7 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -19366,868 +21652,1147 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>14</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C47">
-        <v>47989</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C51">
+        <v>62273</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C48">
-        <v>12147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C52">
+        <v>12915</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C49">
-        <v>34163</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C53">
+        <v>19879</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
-        <v>107695</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <f>SUM(C47:C50)</f>
+      <c r="C54">
+        <v>106927</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>SUM(C51:C54)</f>
         <v>201994</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f>SUM(C29:C42)</f>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>SUM(C29:C46)</f>
         <v>201994</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
         <f>SUM(C3:C24)</f>
         <v>201994</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>81527</v>
+      </c>
+      <c r="D81">
+        <v>150661</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>21075</v>
+      </c>
+      <c r="D82">
+        <v>47365</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>18294</v>
+      </c>
+      <c r="D83">
+        <v>31447</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>10061</v>
+      </c>
+      <c r="D84">
+        <v>17383</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>8567</v>
+      </c>
+      <c r="D85">
+        <v>13658</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>6440</v>
+      </c>
+      <c r="D86">
+        <v>10323</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>5477</v>
+      </c>
+      <c r="D87">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>4697</v>
+      </c>
+      <c r="D88">
+        <v>7271</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>4160</v>
+      </c>
+      <c r="D89">
+        <v>6497</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>3758</v>
+      </c>
+      <c r="D90">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>3354</v>
+      </c>
+      <c r="D91">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>3187</v>
+      </c>
+      <c r="D92">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>2863</v>
+      </c>
+      <c r="D93">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>2733</v>
+      </c>
+      <c r="D94">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>2702</v>
+      </c>
+      <c r="D95">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>2314</v>
+      </c>
+      <c r="D96">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>18</v>
+      </c>
+      <c r="C97">
+        <v>2206</v>
+      </c>
+      <c r="D97">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>2168</v>
+      </c>
+      <c r="D98">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>1872</v>
+      </c>
+      <c r="D99">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>21</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C100">
+        <v>1678</v>
+      </c>
+      <c r="D100">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77">
+      <c r="C101">
+        <v>1634</v>
+      </c>
+      <c r="D101">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>1376</v>
+      </c>
+      <c r="D102">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>1298</v>
+      </c>
+      <c r="D103">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>1174</v>
+      </c>
+      <c r="D104">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>26</v>
+      </c>
+      <c r="C105">
+        <v>1023</v>
+      </c>
+      <c r="D105">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>27</v>
+      </c>
+      <c r="C106">
+        <v>893</v>
+      </c>
+      <c r="D106">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>28</v>
+      </c>
+      <c r="C107">
+        <v>751</v>
+      </c>
+      <c r="D107">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108">
+        <v>684</v>
+      </c>
+      <c r="D108">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>564</v>
+      </c>
+      <c r="D109">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>468</v>
+      </c>
+      <c r="D110">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>32</v>
+      </c>
+      <c r="C111">
+        <v>374</v>
+      </c>
+      <c r="D111">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>33</v>
+      </c>
+      <c r="C112">
+        <v>275</v>
+      </c>
+      <c r="D112">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>34</v>
+      </c>
+      <c r="C113">
+        <v>316</v>
+      </c>
+      <c r="D113">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>35</v>
+      </c>
+      <c r="C114">
+        <v>211</v>
+      </c>
+      <c r="D114">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>36</v>
+      </c>
+      <c r="C115">
+        <v>184</v>
+      </c>
+      <c r="D115">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>37</v>
+      </c>
+      <c r="C116">
+        <v>150</v>
+      </c>
+      <c r="D116">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>38</v>
+      </c>
+      <c r="C117">
+        <v>162</v>
+      </c>
+      <c r="D117">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>39</v>
+      </c>
+      <c r="C118">
+        <v>105</v>
+      </c>
+      <c r="D118">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>91</v>
+      </c>
+      <c r="D119">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>41</v>
+      </c>
+      <c r="C120">
+        <v>85</v>
+      </c>
+      <c r="D120">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>42</v>
+      </c>
+      <c r="C121">
+        <v>65</v>
+      </c>
+      <c r="D121">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>43</v>
+      </c>
+      <c r="C122">
+        <v>59</v>
+      </c>
+      <c r="D122">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>44</v>
+      </c>
+      <c r="C123">
+        <v>66</v>
+      </c>
+      <c r="D123">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>45</v>
+      </c>
+      <c r="C124">
+        <v>57</v>
+      </c>
+      <c r="D124">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>46</v>
+      </c>
+      <c r="C125">
+        <v>47</v>
+      </c>
+      <c r="D125">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>47</v>
+      </c>
+      <c r="C126">
+        <v>43</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>48</v>
+      </c>
+      <c r="C127">
+        <v>46</v>
+      </c>
+      <c r="D127">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>49</v>
+      </c>
+      <c r="C128">
+        <v>43</v>
+      </c>
+      <c r="D128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>29</v>
+      </c>
+      <c r="D129">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>51</v>
+      </c>
+      <c r="C130">
+        <v>46</v>
+      </c>
+      <c r="D130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>52</v>
+      </c>
+      <c r="C131">
+        <v>38</v>
+      </c>
+      <c r="D131">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>53</v>
+      </c>
+      <c r="C132">
+        <v>39</v>
+      </c>
+      <c r="D132">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>54</v>
+      </c>
+      <c r="C133">
+        <v>24</v>
+      </c>
+      <c r="D133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>55</v>
+      </c>
+      <c r="C134">
+        <v>27</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>56</v>
+      </c>
+      <c r="C135">
+        <v>22</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>57</v>
+      </c>
+      <c r="C136">
+        <v>23</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>58</v>
+      </c>
+      <c r="C137">
+        <v>21</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>59</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+      <c r="D138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>60</v>
+      </c>
+      <c r="C139">
+        <v>23</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>61</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>62</v>
+      </c>
+      <c r="C141">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>63</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>64</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>65</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>66</v>
+      </c>
+      <c r="C145">
+        <v>15</v>
+      </c>
+      <c r="D145">
         <v>2</v>
       </c>
-      <c r="C77">
-        <v>81527</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78">
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>67</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>68</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>69</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>70</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>71</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>72</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>73</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>74</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>75</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154">
         <v>3</v>
       </c>
-      <c r="C78">
-        <v>21075</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>18294</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>5</v>
-      </c>
-      <c r="C80">
-        <v>10061</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>8567</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>7</v>
-      </c>
-      <c r="C82">
-        <v>6440</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83">
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>76</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>77</v>
+      </c>
+      <c r="C156">
         <v>8</v>
       </c>
-      <c r="C83">
-        <v>5477</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>9</v>
-      </c>
-      <c r="C84">
-        <v>4697</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>10</v>
-      </c>
-      <c r="C85">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>11</v>
-      </c>
-      <c r="C86">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>12</v>
-      </c>
-      <c r="C87">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>13</v>
-      </c>
-      <c r="C88">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>14</v>
-      </c>
-      <c r="C89">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>15</v>
-      </c>
-      <c r="C90">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>16</v>
-      </c>
-      <c r="C91">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>18</v>
-      </c>
-      <c r="C93">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>19</v>
-      </c>
-      <c r="C94">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>20</v>
-      </c>
-      <c r="C95">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>21</v>
-      </c>
-      <c r="C96">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>22</v>
-      </c>
-      <c r="C97">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>23</v>
-      </c>
-      <c r="C98">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>24</v>
-      </c>
-      <c r="C99">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>25</v>
-      </c>
-      <c r="C100">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>26</v>
-      </c>
-      <c r="C101">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>27</v>
-      </c>
-      <c r="C102">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>28</v>
-      </c>
-      <c r="C103">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>29</v>
-      </c>
-      <c r="C104">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>30</v>
-      </c>
-      <c r="C105">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>31</v>
-      </c>
-      <c r="C106">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>32</v>
-      </c>
-      <c r="C107">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>33</v>
-      </c>
-      <c r="C108">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>34</v>
-      </c>
-      <c r="C109">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>35</v>
-      </c>
-      <c r="C110">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>36</v>
-      </c>
-      <c r="C111">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>37</v>
-      </c>
-      <c r="C112">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>38</v>
-      </c>
-      <c r="C113">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>39</v>
-      </c>
-      <c r="C114">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>40</v>
-      </c>
-      <c r="C115">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>41</v>
-      </c>
-      <c r="C116">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>42</v>
-      </c>
-      <c r="C117">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>43</v>
-      </c>
-      <c r="C118">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>44</v>
-      </c>
-      <c r="C119">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120">
-        <v>45</v>
-      </c>
-      <c r="C120">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121">
-        <v>46</v>
-      </c>
-      <c r="C121">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122">
-        <v>47</v>
-      </c>
-      <c r="C122">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123">
-        <v>48</v>
-      </c>
-      <c r="C123">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124">
-        <v>49</v>
-      </c>
-      <c r="C124">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125">
-        <v>50</v>
-      </c>
-      <c r="C125">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126">
-        <v>51</v>
-      </c>
-      <c r="C126">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127">
-        <v>52</v>
-      </c>
-      <c r="C127">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128">
-        <v>53</v>
-      </c>
-      <c r="C128">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129">
-        <v>54</v>
-      </c>
-      <c r="C129">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130">
-        <v>55</v>
-      </c>
-      <c r="C130">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131">
-        <v>56</v>
-      </c>
-      <c r="C131">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132">
-        <v>57</v>
-      </c>
-      <c r="C132">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133">
-        <v>58</v>
-      </c>
-      <c r="C133">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134">
-        <v>59</v>
-      </c>
-      <c r="C134">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135">
-        <v>60</v>
-      </c>
-      <c r="C135">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <v>61</v>
-      </c>
-      <c r="C136">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137">
-        <v>62</v>
-      </c>
-      <c r="C137">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138">
-        <v>63</v>
-      </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139">
-        <v>64</v>
-      </c>
-      <c r="C139">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140">
-        <v>65</v>
-      </c>
-      <c r="C140">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141">
-        <v>66</v>
-      </c>
-      <c r="C141">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142">
-        <v>67</v>
-      </c>
-      <c r="C142">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143">
-        <v>68</v>
-      </c>
-      <c r="C143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144">
-        <v>69</v>
-      </c>
-      <c r="C144">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145">
-        <v>70</v>
-      </c>
-      <c r="C145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146">
-        <v>71</v>
-      </c>
-      <c r="C146">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147">
-        <v>72</v>
-      </c>
-      <c r="C147">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148">
-        <v>73</v>
-      </c>
-      <c r="C148">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149">
-        <v>74</v>
-      </c>
-      <c r="C149">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150">
-        <v>75</v>
-      </c>
-      <c r="C150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151">
-        <v>76</v>
-      </c>
-      <c r="C151">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152">
-        <v>77</v>
-      </c>
-      <c r="C152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157">
         <v>78</v>
-      </c>
-      <c r="C153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154">
-        <v>79</v>
-      </c>
-      <c r="C154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155">
-        <v>80</v>
-      </c>
-      <c r="C155">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156">
-        <v>81</v>
-      </c>
-      <c r="C156">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157">
-        <v>82</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C159">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160">
+        <v>81</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>82</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>83</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>84</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164">
         <v>85</v>
       </c>
-      <c r="C160">
+      <c r="C164">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165">
         <v>86</v>
       </c>
-      <c r="C161">
+      <c r="C165">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166">
         <v>87</v>
       </c>
-      <c r="C162">
+      <c r="C166">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167">
         <v>88</v>
       </c>
-      <c r="C163">
+      <c r="C167">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168">
         <v>89</v>
       </c>
-      <c r="C164">
+      <c r="C168">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169">
         <v>90</v>
       </c>
-      <c r="C165">
+      <c r="C169">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170">
         <v>91</v>
       </c>
-      <c r="C166">
+      <c r="C170">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171">
         <v>92</v>
       </c>
-      <c r="C167">
+      <c r="C171">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172">
         <v>93</v>
       </c>
-      <c r="C168">
+      <c r="C172">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173">
         <v>94</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170">
-        <v>95</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171">
-        <v>96</v>
-      </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172">
-        <v>98</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173">
-        <v>99</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>25</v>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>96</v>
       </c>
       <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>98</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>99</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>100</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179">
         <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
